--- a/src/test/java/TBR/Xlsdata_Files/Clients.xlsx
+++ b/src/test/java/TBR/Xlsdata_Files/Clients.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12360" windowHeight="9135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12105" windowHeight="4215" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="AddNewClient" sheetId="1" r:id="rId1"/>
+    <sheet name="AddNewClients" sheetId="1" r:id="rId1"/>
+    <sheet name="AddNewClient" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:L12"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="103">
   <si>
     <t>Name</t>
   </si>
@@ -100,19 +101,235 @@
     <t>Dublin 1, Parnell Street</t>
   </si>
   <si>
-    <t>BaseLocation2</t>
-  </si>
-  <si>
     <t>35381234568</t>
   </si>
   <si>
     <t>s.padmanabuni@tempbuddy.co</t>
   </si>
   <si>
-    <t>ClientApprover</t>
-  </si>
-  <si>
-    <t>Client28</t>
+    <t>Tata &amp; co</t>
+  </si>
+  <si>
+    <t>TataApprover</t>
+  </si>
+  <si>
+    <t>TataLocation</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Parnell Street, Dublin 2</t>
+  </si>
+  <si>
+    <t>Parnell Street, Dublin 3</t>
+  </si>
+  <si>
+    <t>Parnell Street, Dublin 4</t>
+  </si>
+  <si>
+    <t>Parnell Street, Dublin 5</t>
+  </si>
+  <si>
+    <t>Parnell Street, Dublin 6</t>
+  </si>
+  <si>
+    <t>Parnell Street, Dublin 7</t>
+  </si>
+  <si>
+    <t>Parnell Street, Dublin 8</t>
+  </si>
+  <si>
+    <t>Parnell Street, Dublin 9</t>
+  </si>
+  <si>
+    <t>Parnell Street, Dublin 10</t>
+  </si>
+  <si>
+    <t>1235</t>
+  </si>
+  <si>
+    <t>1236</t>
+  </si>
+  <si>
+    <t>1237</t>
+  </si>
+  <si>
+    <t>1238</t>
+  </si>
+  <si>
+    <t>1239</t>
+  </si>
+  <si>
+    <t>1240</t>
+  </si>
+  <si>
+    <t>1241</t>
+  </si>
+  <si>
+    <t>1242</t>
+  </si>
+  <si>
+    <t>1243</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>12346</t>
+  </si>
+  <si>
+    <t>12347</t>
+  </si>
+  <si>
+    <t>12348</t>
+  </si>
+  <si>
+    <t>12349</t>
+  </si>
+  <si>
+    <t>12350</t>
+  </si>
+  <si>
+    <t>12351</t>
+  </si>
+  <si>
+    <t>12352</t>
+  </si>
+  <si>
+    <t>12353</t>
+  </si>
+  <si>
+    <t>12354</t>
+  </si>
+  <si>
+    <t>678911</t>
+  </si>
+  <si>
+    <t>678912</t>
+  </si>
+  <si>
+    <t>678913</t>
+  </si>
+  <si>
+    <t>678914</t>
+  </si>
+  <si>
+    <t>678915</t>
+  </si>
+  <si>
+    <t>678916</t>
+  </si>
+  <si>
+    <t>678917</t>
+  </si>
+  <si>
+    <t>678918</t>
+  </si>
+  <si>
+    <t>678919</t>
+  </si>
+  <si>
+    <t>BurgerKing</t>
+  </si>
+  <si>
+    <t>GoogleApprover</t>
+  </si>
+  <si>
+    <t>MicrosoftApprover</t>
+  </si>
+  <si>
+    <t>BurgerKingApprover</t>
+  </si>
+  <si>
+    <t>ComputerFutures</t>
+  </si>
+  <si>
+    <t>ComputerFuturesApprover</t>
+  </si>
+  <si>
+    <t>McDonalds</t>
+  </si>
+  <si>
+    <t>McdonaldsApprover</t>
+  </si>
+  <si>
+    <t>Carrols</t>
+  </si>
+  <si>
+    <t>CarrolsApprover</t>
+  </si>
+  <si>
+    <t>Sogeti</t>
+  </si>
+  <si>
+    <t>SogetiApprover</t>
+  </si>
+  <si>
+    <t>ThreeLeaves</t>
+  </si>
+  <si>
+    <t>ThreeleavesApprover</t>
+  </si>
+  <si>
+    <t>Keoghs</t>
+  </si>
+  <si>
+    <t>KeoghsApprover</t>
+  </si>
+  <si>
+    <t>GoogleLocation</t>
+  </si>
+  <si>
+    <t>MicrosoftLocation</t>
+  </si>
+  <si>
+    <t>SogetiLocation</t>
+  </si>
+  <si>
+    <t>BurgerKingLocation</t>
+  </si>
+  <si>
+    <t>ComputerFuturesLocation</t>
+  </si>
+  <si>
+    <t>McDonaldsLocation</t>
+  </si>
+  <si>
+    <t>CarrolsLocation</t>
+  </si>
+  <si>
+    <t>ThreeLeavesLocation</t>
+  </si>
+  <si>
+    <t>KeoghsLocation</t>
+  </si>
+  <si>
+    <t>Microsoft Ltd</t>
   </si>
 </sst>
 </file>
@@ -442,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,7 +672,7 @@
     <col min="3" max="3" width="25.28515625" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" customWidth="1"/>
     <col min="7" max="7" width="19.42578125" customWidth="1"/>
     <col min="8" max="8" width="31.140625" customWidth="1"/>
     <col min="9" max="9" width="21.42578125" customWidth="1"/>
@@ -464,7 +681,7 @@
     <col min="12" max="15" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -517,9 +734,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -540,7 +757,7 @@
         <v>21</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>17</v>
@@ -555,13 +772,555 @@
         <v>19</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>27</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H3:H11" r:id="rId2" display="s.padmanabuni@tempbuddy.co"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/TBR/Xlsdata_Files/Clients.xlsx
+++ b/src/test/java/TBR/Xlsdata_Files/Clients.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12105" windowHeight="4215" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12270" windowHeight="3795" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AddNewClients" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="105">
   <si>
     <t>Name</t>
   </si>
@@ -330,12 +330,18 @@
   </si>
   <si>
     <t>Microsoft Ltd</t>
+  </si>
+  <si>
+    <t>BurgerKingApprover101</t>
+  </si>
+  <si>
+    <t>BurgerKingClient101</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1218,10 +1224,15 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="13" max="13" width="19" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1278,7 +1289,7 @@
     </row>
     <row r="2" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
@@ -1293,7 +1304,7 @@
         <v>52</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>21</v>
